--- a/CHEMICAL-RESIN-VOLUME-CALCULATOR-03_17.xlsx
+++ b/CHEMICAL-RESIN-VOLUME-CALCULATOR-03_17.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DATA SHEETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ChadHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC798E81-6267-47B7-865C-FE10393FA615}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$12:$E$15</definedName>
     <definedName name="mylist">OFFSET([1]Sheet1!$M$2,0,0+[1]Sheet1!$M$9,1+[1]Sheet1!$M$11,1)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -175,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -589,23 +588,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -641,23 +623,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,11 +798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>1</v>
@@ -1126,7 +1091,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>1</v>
@@ -1154,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
@@ -1244,7 +1209,7 @@
       </c>
       <c r="D18" s="3">
         <f>IF(OR(ISBLANK(D12),ISBLANK(D13),ISBLANK(D14),ISBLANK(D15)),"",ROUNDUP(D15/D19,0))</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1275,7 +1240,7 @@
       </c>
       <c r="D19" s="8">
         <f>IF(OR(ISBLANK(D12),ISBLANK(D13),ISBLANK(D14)),"",ROUNDDOWN(D13/(VLOOKUP(D12,J5:L18,2,FALSE)*D14/1000),0))</f>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1299,7 +1264,7 @@
       </c>
       <c r="D20" s="8">
         <f>IF(OR(ISBLANK(D12),ISBLANK(D14)),"",D14*VLOOKUP(D12,J5:L18,3,FALSE))</f>
-        <v>85.732244897959248</v>
+        <v>51.922628571428618</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>1</v>
@@ -1424,10 +1389,10 @@
     <mergeCell ref="C8:E10"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
       <formula1>$P$5:$P$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12">
       <formula1>$J$5:$J$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -1437,7 +1402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1449,7 +1414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
